--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
         <v>39583</v>
       </c>
       <c r="B4">
-        <v>0.4148772958367175</v>
+        <v>0.2622798531249657</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>39675</v>
       </c>
       <c r="B5">
-        <v>0.6845813514878358</v>
+        <v>0.4989385597712612</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>39767</v>
       </c>
       <c r="B6">
-        <v>0.4127009086287075</v>
+        <v>0.1216139147831967</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>39859</v>
       </c>
       <c r="B7">
-        <v>0.6274680232633898</v>
+        <v>0.6548011357729422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>39948</v>
       </c>
       <c r="B8">
-        <v>0.4244732020363102</v>
+        <v>0.9925931342935428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>40040</v>
       </c>
       <c r="B9">
-        <v>0.4266472535042993</v>
+        <v>0.4197174453273789</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>40132</v>
       </c>
       <c r="B10">
-        <v>0.4230864195430968</v>
+        <v>0.4423121297183457</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>40224</v>
       </c>
       <c r="B11">
-        <v>0.3967808902560108</v>
+        <v>0.3248472793844002</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>40313</v>
       </c>
       <c r="B12">
-        <v>0.3886954132373432</v>
+        <v>0.07907397708568453</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>40405</v>
       </c>
       <c r="B13">
-        <v>0.3774216355052999</v>
+        <v>0.2409202938150372</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>40497</v>
       </c>
       <c r="B14">
-        <v>0.3634637953232129</v>
+        <v>0.1901876995395071</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>40589</v>
       </c>
       <c r="B15">
-        <v>-0.002425626523120172</v>
+        <v>0.3234244561263893</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>40678</v>
       </c>
       <c r="B16">
-        <v>0.1514028724571688</v>
+        <v>0.5460928092329453</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>40770</v>
       </c>
       <c r="B17">
-        <v>0.1462774785881038</v>
+        <v>0.24993599858945</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>40862</v>
       </c>
       <c r="B18">
-        <v>0.1390837096149795</v>
+        <v>-0.0008109998315291023</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>40954</v>
       </c>
       <c r="B19">
-        <v>0.3372212414908091</v>
+        <v>0.2240000000000038</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>41044</v>
       </c>
       <c r="B20">
-        <v>0.2513391483412732</v>
+        <v>0.2694296772580742</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>41136</v>
       </c>
       <c r="B21">
-        <v>0.3337488852512678</v>
+        <v>0.3037528065631818</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>41228</v>
       </c>
       <c r="B22">
-        <v>0.2750194367111476</v>
+        <v>0.102683801342323</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>41320</v>
       </c>
       <c r="B23">
-        <v>0.2867424793899147</v>
+        <v>0.4016405696262808</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>41409</v>
       </c>
       <c r="B24">
-        <v>0.2600907720923971</v>
+        <v>0.4670353440379102</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>41501</v>
       </c>
       <c r="B25">
-        <v>0.2943284363105221</v>
+        <v>0.3229903499871796</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>41593</v>
       </c>
       <c r="B26">
-        <v>0.2597361176108137</v>
+        <v>0.344825264879205</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>41685</v>
       </c>
       <c r="B27">
-        <v>0.1674083228736549</v>
+        <v>0.2849999999999966</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>41774</v>
       </c>
       <c r="B28">
-        <v>0.1709711880072433</v>
+        <v>0.2296800116567681</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>41866</v>
       </c>
       <c r="B29">
-        <v>0.2872485237765687</v>
+        <v>0.319136520886417</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>41958</v>
       </c>
       <c r="B30">
-        <v>0.335350583200551</v>
+        <v>0.3192030404897963</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>42050</v>
       </c>
       <c r="B31">
-        <v>0.2734322603357384</v>
+        <v>0.3838834518010543</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>42139</v>
       </c>
       <c r="B32">
-        <v>0.3134604603094857</v>
+        <v>0.1721310865893741</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>42231</v>
       </c>
       <c r="B33">
-        <v>0.2992861429221563</v>
+        <v>0.3124151146021887</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>42323</v>
       </c>
       <c r="B34">
-        <v>0.3332040471845374</v>
+        <v>1.338781480463297</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>42415</v>
       </c>
       <c r="B35">
-        <v>0.3433427153508433</v>
+        <v>0.6782258938801533</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>42505</v>
       </c>
       <c r="B36">
-        <v>0.3051184965239742</v>
+        <v>0.5169063711852431</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>42597</v>
       </c>
       <c r="B37">
-        <v>0.2827021389734341</v>
+        <v>0.5229245835751897</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>42689</v>
       </c>
       <c r="B38">
-        <v>0.2949394374402772</v>
+        <v>0.6999999999999886</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>42781</v>
       </c>
       <c r="B39">
-        <v>0.6494572658919679</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>42870</v>
       </c>
       <c r="B40">
-        <v>0.4725298201177139</v>
+        <v>0.4000000000000057</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>42962</v>
       </c>
       <c r="B41">
-        <v>0.3726674967236647</v>
+        <v>0.3500000000000085</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>43054</v>
       </c>
       <c r="B42">
-        <v>0.203914749554059</v>
+        <v>0.1700920104450461</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>43146</v>
       </c>
       <c r="B43">
-        <v>0.4999999999999858</v>
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>43235</v>
       </c>
       <c r="B44">
-        <v>0.5000000000000142</v>
+        <v>0.4999999999999858</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>43327</v>
       </c>
       <c r="B45">
-        <v>0.4999999999999858</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>43419</v>
       </c>
       <c r="B46">
-        <v>0.5000000000000142</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>43511</v>
       </c>
       <c r="B47">
-        <v>0.2999999999999829</v>
+        <v>0.6648928967370864</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>43600</v>
       </c>
       <c r="B48">
-        <v>0.2999999999999829</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>43692</v>
       </c>
       <c r="B49">
-        <v>0.2999999999999829</v>
+        <v>0.3999908011606834</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>43784</v>
       </c>
       <c r="B50">
-        <v>0.2999999999999829</v>
+        <v>0.5200000000000102</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>43876</v>
       </c>
       <c r="B51">
-        <v>0.2799999999999869</v>
+        <v>0.5999999999999943</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>43966</v>
       </c>
       <c r="B52">
-        <v>0.2799999999999869</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>44058</v>
       </c>
       <c r="B53">
-        <v>0.2799999999999869</v>
+        <v>0.3499999990000049</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>44150</v>
       </c>
       <c r="B54">
-        <v>0.2799999999999869</v>
+        <v>0.7000000000000171</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>44242</v>
       </c>
       <c r="B55">
-        <v>0.4399999999999977</v>
+        <v>0.7000000000000171</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>44331</v>
       </c>
       <c r="B56">
-        <v>0.4399999999999977</v>
+        <v>0.7999999999999972</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>44423</v>
       </c>
       <c r="B57">
-        <v>0.4399999999999977</v>
+        <v>-0.7999999999999972</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>44515</v>
       </c>
       <c r="B58">
-        <v>0.4399999999999977</v>
+        <v>0.4999999999999858</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>44607</v>
       </c>
       <c r="B59">
-        <v>0.4000000000000057</v>
+        <v>2.842170943040401E-14</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>44696</v>
       </c>
       <c r="B60">
-        <v>0.4000000000000057</v>
+        <v>0.5000000000000142</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>44788</v>
       </c>
       <c r="B61">
-        <v>0.4000000000000057</v>
+        <v>0.7000000000000171</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>44880</v>
       </c>
       <c r="B62">
-        <v>0.4000000000000057</v>
+        <v>-0.9999999999999858</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>44972</v>
       </c>
       <c r="B63">
-        <v>0.09999999999999432</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>45061</v>
       </c>
       <c r="B64">
-        <v>0.09999999999999432</v>
+        <v>2.799999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>45153</v>
       </c>
       <c r="B65">
-        <v>0.09999999999999432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>45245</v>
       </c>
       <c r="B66">
-        <v>0.09999999999999432</v>
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>45337</v>
       </c>
       <c r="B67">
-        <v>0.2999999999999687</v>
+        <v>-0.09999999999999432</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>45427</v>
       </c>
       <c r="B68">
-        <v>0.3000000000000114</v>
+        <v>0.2000000000000028</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>45519</v>
       </c>
       <c r="B69">
-        <v>0.2999999999999829</v>
+        <v>0.09999999999999432</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>45611</v>
       </c>
       <c r="B70">
-        <v>0.2999999999999829</v>
+        <v>0.09999999999999432</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>45703</v>
       </c>
       <c r="B71">
-        <v>0.2999999999999829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>45792</v>
       </c>
       <c r="B72">
-        <v>0.2000000000000028</v>
+        <v>0.4999999999999858</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,79 +970,7 @@
         <v>45884</v>
       </c>
       <c r="B73">
-        <v>0.2000000000000028</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B74">
-        <v>0.2000000000000171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>46068</v>
-      </c>
-      <c r="B75">
-        <v>0.2999999999999829</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>46157</v>
-      </c>
-      <c r="B76">
-        <v>0.2999999999999687</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>46249</v>
-      </c>
-      <c r="B77">
-        <v>0.2999999999999829</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
-        <v>46341</v>
-      </c>
-      <c r="B78">
-        <v>0.2999999999999829</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
-        <v>46433</v>
-      </c>
-      <c r="B79">
-        <v>0.4000000000000057</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>46522</v>
-      </c>
-      <c r="B80">
-        <v>0.4000000000000057</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
-        <v>46614</v>
-      </c>
-      <c r="B81">
-        <v>0.4000000000000057</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
-        <v>46706</v>
-      </c>
-      <c r="B82">
-        <v>0.4000000000000057</v>
+        <v>0.4000000000000199</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,578 +399,418 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39401</v>
+        <v>39400</v>
       </c>
       <c r="B2">
-        <v>0.3414817814509661</v>
+        <v>-0.03834288659695062</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39493</v>
+        <v>39583</v>
       </c>
       <c r="B3">
-        <v>0.4082229956956951</v>
+        <v>1.257433230729447</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B4">
-        <v>0.2622798531249657</v>
+        <v>0.8837904892317567</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39675</v>
+        <v>39948</v>
       </c>
       <c r="B5">
-        <v>0.4989385597712612</v>
+        <v>0.2524978494830066</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>39767</v>
+        <v>40130</v>
       </c>
       <c r="B6">
-        <v>0.1216139147831967</v>
+        <v>0.5778148852415939</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>39859</v>
+        <v>40310</v>
       </c>
       <c r="B7">
-        <v>0.6548011357729422</v>
+        <v>-0.1977656654399595</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>39948</v>
+        <v>40494</v>
       </c>
       <c r="B8">
-        <v>0.9925931342935428</v>
+        <v>-1.091011900795806</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40040</v>
+        <v>40676</v>
       </c>
       <c r="B9">
-        <v>0.4197174453273789</v>
+        <v>-0.1775928823643795</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40132</v>
+        <v>40862</v>
       </c>
       <c r="B10">
-        <v>0.4423121297183457</v>
+        <v>0.5531759638372762</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>40224</v>
+        <v>41044</v>
       </c>
       <c r="B11">
-        <v>0.3248472793844002</v>
+        <v>0.1947850960503388</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>40313</v>
+        <v>41228</v>
       </c>
       <c r="B12">
-        <v>0.07907397708568453</v>
+        <v>0.3732050716642448</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>40405</v>
+        <v>41409</v>
       </c>
       <c r="B13">
-        <v>0.2409202938150372</v>
+        <v>-0.1411005862636046</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>40497</v>
+        <v>41592</v>
       </c>
       <c r="B14">
-        <v>0.1901876995395071</v>
+        <v>-0.2128461555332564</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>40589</v>
+        <v>41774</v>
       </c>
       <c r="B15">
-        <v>0.3234244561263893</v>
+        <v>0.4255979180752121</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>40678</v>
+        <v>41957</v>
       </c>
       <c r="B16">
-        <v>0.5460928092329453</v>
+        <v>0.4461687925667093</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>40770</v>
+        <v>42137</v>
       </c>
       <c r="B17">
-        <v>0.24993599858945</v>
+        <v>0.3261422475203943</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B18">
-        <v>-0.0008109998315291023</v>
+        <v>0.6601374471387373</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>40954</v>
+        <v>42503</v>
       </c>
       <c r="B19">
-        <v>0.2240000000000038</v>
+        <v>0.8728685839363095</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41044</v>
+        <v>42689</v>
       </c>
       <c r="B20">
-        <v>0.2694296772580742</v>
+        <v>0.9596379771730028</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41136</v>
+        <v>42867</v>
       </c>
       <c r="B21">
-        <v>0.3037528065631818</v>
+        <v>0.2682953781150843</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>41228</v>
+        <v>43053</v>
       </c>
       <c r="B22">
-        <v>0.102683801342323</v>
+        <v>0.1682050168937224</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>41320</v>
+        <v>43145</v>
       </c>
       <c r="B23">
-        <v>0.4016405696262808</v>
+        <v>0.4761878885828992</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>41409</v>
+        <v>43235</v>
       </c>
       <c r="B24">
-        <v>0.4670353440379102</v>
+        <v>-0.5240674734835977</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>41501</v>
+        <v>43326</v>
       </c>
       <c r="B25">
-        <v>0.3229903499871796</v>
+        <v>-0.2614280992174685</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>41593</v>
+        <v>43418</v>
       </c>
       <c r="B26">
-        <v>0.344825264879205</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>41685</v>
+        <v>43510</v>
       </c>
       <c r="B27">
-        <v>0.2849999999999966</v>
+        <v>-0.2951285663450562</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>41774</v>
+        <v>43600</v>
       </c>
       <c r="B28">
-        <v>0.2296800116567681</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>41866</v>
+        <v>43691</v>
       </c>
       <c r="B29">
-        <v>0.319136520886417</v>
+        <v>0.7916058519991367</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>41958</v>
+        <v>43783</v>
       </c>
       <c r="B30">
-        <v>0.3192030404897963</v>
+        <v>0.5670926739443871</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>42050</v>
+        <v>43875</v>
       </c>
       <c r="B31">
-        <v>0.3838834518010543</v>
+        <v>1.261225886527512</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>42139</v>
+        <v>43966</v>
       </c>
       <c r="B32">
-        <v>0.1721310865893741</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>42231</v>
+        <v>44068</v>
       </c>
       <c r="B33">
-        <v>0.3124151146021887</v>
+        <v>1.450185044412038</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>42323</v>
+        <v>44159</v>
       </c>
       <c r="B34">
-        <v>1.338781480463297</v>
+        <v>0.760290197271857</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>42415</v>
+        <v>44251</v>
       </c>
       <c r="B35">
-        <v>0.6782258938801533</v>
+        <v>-0.5062757877985717</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>42505</v>
+        <v>44341</v>
       </c>
       <c r="B36">
-        <v>0.5169063711852431</v>
+        <v>0.1999914549530217</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>42597</v>
+        <v>44432</v>
       </c>
       <c r="B37">
-        <v>0.5229245835751897</v>
+        <v>1.809651846369789</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>42689</v>
+        <v>44525</v>
       </c>
       <c r="B38">
-        <v>0.6999999999999886</v>
+        <v>-2.218509177329452</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>42781</v>
+        <v>44617</v>
       </c>
       <c r="B39">
-        <v>0.8499999999999943</v>
+        <v>0.9580856546984649</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>42870</v>
+        <v>44706</v>
       </c>
       <c r="B40">
-        <v>0.4000000000000057</v>
+        <v>0.06845131779844849</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>42962</v>
+        <v>44798</v>
       </c>
       <c r="B41">
-        <v>0.3500000000000085</v>
+        <v>2.344079640195559</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>43054</v>
+        <v>44890</v>
       </c>
       <c r="B42">
-        <v>0.1700920104450461</v>
+        <v>-5.587651344285405E-06</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>43146</v>
+        <v>44981</v>
       </c>
       <c r="B43">
-        <v>0.2000000000000028</v>
+        <v>0.6233623182505568</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>43235</v>
+        <v>45071</v>
       </c>
       <c r="B44">
-        <v>0.4999999999999858</v>
+        <v>-4.887355777631228</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>43327</v>
+        <v>45163</v>
       </c>
       <c r="B45">
-        <v>0.5999999999999943</v>
+        <v>0.07746478018819403</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>43419</v>
+        <v>45254</v>
       </c>
       <c r="B46">
-        <v>0.5</v>
+        <v>0.2231996868496964</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>43511</v>
+        <v>45345</v>
       </c>
       <c r="B47">
-        <v>0.6648928967370864</v>
+        <v>0.3473129037311367</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>43600</v>
+        <v>45436</v>
       </c>
       <c r="B48">
-        <v>0.7</v>
+        <v>-0.4268782796002455</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>43692</v>
+        <v>45534</v>
       </c>
       <c r="B49">
-        <v>0.3999908011606834</v>
+        <v>1.034675296103259</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>43784</v>
+        <v>45618</v>
       </c>
       <c r="B50">
-        <v>0.5200000000000102</v>
+        <v>0.434366938073353</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>43876</v>
+        <v>45713</v>
       </c>
       <c r="B51">
-        <v>0.5999999999999943</v>
+        <v>0.41600913674678</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>43966</v>
+        <v>45800</v>
       </c>
       <c r="B52">
-        <v>0.5</v>
+        <v>-0.3423454266220887</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>44058</v>
+        <v>45891</v>
       </c>
       <c r="B53">
-        <v>0.3499999990000049</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B54">
-        <v>0.7000000000000171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B55">
-        <v>0.7000000000000171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B56">
-        <v>0.7999999999999972</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>44423</v>
-      </c>
-      <c r="B57">
-        <v>-0.7999999999999972</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
-        <v>44515</v>
-      </c>
-      <c r="B58">
-        <v>0.4999999999999858</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>44607</v>
-      </c>
-      <c r="B59">
-        <v>2.842170943040401E-14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
-        <v>44696</v>
-      </c>
-      <c r="B60">
-        <v>0.5000000000000142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>44788</v>
-      </c>
-      <c r="B61">
-        <v>0.7000000000000171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
-        <v>44880</v>
-      </c>
-      <c r="B62">
-        <v>-0.9999999999999858</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
-        <v>44972</v>
-      </c>
-      <c r="B63">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
-        <v>45061</v>
-      </c>
-      <c r="B64">
-        <v>2.799999999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
-        <v>45153</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>45245</v>
-      </c>
-      <c r="B66">
-        <v>0.2000000000000028</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
-        <v>45337</v>
-      </c>
-      <c r="B67">
-        <v>-0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
-        <v>45427</v>
-      </c>
-      <c r="B68">
-        <v>0.2000000000000028</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>45519</v>
-      </c>
-      <c r="B69">
-        <v>0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
-        <v>45611</v>
-      </c>
-      <c r="B70">
-        <v>0.09999999999999432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>45703</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B72">
-        <v>0.4999999999999858</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B73">
-        <v>0.4000000000000199</v>
+        <v>0.7919400257838731</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>value</t>
+    <t>first_release_value</t>
   </si>
   <si>
     <t>date</t>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,418 +399,666 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>38398</v>
       </c>
       <c r="B2">
-        <v>-0.03834288659695062</v>
+        <v>0.4001302730732021</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>38487</v>
       </c>
       <c r="B3">
-        <v>1.257433230729447</v>
+        <v>1.534309226294653</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>38579</v>
       </c>
       <c r="B4">
-        <v>0.8837904892317567</v>
+        <v>-0.2158762754026498</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>38671</v>
       </c>
       <c r="B5">
-        <v>0.2524978494830066</v>
+        <v>-0.1573369388209471</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>38763</v>
       </c>
       <c r="B6">
-        <v>0.5778148852415939</v>
+        <v>0.5441785023706558</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>38852</v>
       </c>
       <c r="B7">
-        <v>-0.1977656654399595</v>
+        <v>-0.1273572285275435</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>38944</v>
       </c>
       <c r="B8">
-        <v>-1.091011900795806</v>
+        <v>0.510068525034896</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>39036</v>
       </c>
       <c r="B9">
-        <v>-0.1775928823643795</v>
+        <v>-0.009760955203091726</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>39128</v>
       </c>
       <c r="B10">
-        <v>0.5531759638372762</v>
+        <v>1.786050651751793</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>39217</v>
       </c>
       <c r="B11">
-        <v>0.1947850960503388</v>
+        <v>-0.03834288659695062</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>39309</v>
       </c>
       <c r="B12">
-        <v>0.3732050716642448</v>
+        <v>-0.0575559711994913</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>39401</v>
       </c>
       <c r="B13">
-        <v>-0.1411005862636046</v>
+        <v>-0.6200525020039009</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>39493</v>
       </c>
       <c r="B14">
-        <v>-0.2128461555332564</v>
+        <v>1.257433230729447</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>39583</v>
       </c>
       <c r="B15">
-        <v>0.4255979180752121</v>
+        <v>0.8837904892317567</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>39675</v>
       </c>
       <c r="B16">
-        <v>0.4461687925667093</v>
+        <v>0.8108064919307481</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>39767</v>
       </c>
       <c r="B17">
-        <v>0.3261422475203943</v>
+        <v>-0.07476001263452758</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>39859</v>
       </c>
       <c r="B18">
-        <v>0.6601374471387373</v>
+        <v>0.2524978494830066</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>39948</v>
       </c>
       <c r="B19">
-        <v>0.8728685839363095</v>
+        <v>0.5778148852415939</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>40040</v>
       </c>
       <c r="B20">
-        <v>0.9596379771730028</v>
+        <v>0.1185568564730346</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>40132</v>
       </c>
       <c r="B21">
-        <v>0.2682953781150843</v>
+        <v>-0.1977656654399595</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>40224</v>
       </c>
       <c r="B22">
-        <v>0.1682050168937224</v>
+        <v>1.071871022829441</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>40313</v>
       </c>
       <c r="B23">
-        <v>0.4761878885828992</v>
+        <v>-1.091011900795806</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>40405</v>
       </c>
       <c r="B24">
-        <v>-0.5240674734835977</v>
+        <v>1.120967691003898</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>40497</v>
       </c>
       <c r="B25">
-        <v>-0.2614280992174685</v>
+        <v>-0.1775928823643795</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>40589</v>
       </c>
       <c r="B26">
-        <v>0.8</v>
+        <v>1.28981182300268</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>40678</v>
       </c>
       <c r="B27">
-        <v>-0.2951285663450562</v>
+        <v>0.5923450763659872</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>40770</v>
       </c>
       <c r="B28">
-        <v>-0.3</v>
+        <v>0.5531759638372762</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>40862</v>
       </c>
       <c r="B29">
-        <v>0.7916058519991367</v>
+        <v>0.5788603179058356</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>40954</v>
       </c>
       <c r="B30">
-        <v>0.5670926739443871</v>
+        <v>0.1947850960503388</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>41044</v>
       </c>
       <c r="B31">
-        <v>1.261225886527512</v>
+        <v>-0.2481858862331165</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>41136</v>
       </c>
       <c r="B32">
-        <v>0.2</v>
+        <v>0.3732050716642448</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>41228</v>
       </c>
       <c r="B33">
-        <v>1.450185044412038</v>
+        <v>0.141299961337424</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>41320</v>
       </c>
       <c r="B34">
-        <v>0.760290197271857</v>
+        <v>-0.1411005862636046</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>41409</v>
       </c>
       <c r="B35">
-        <v>-0.5062757877985717</v>
+        <v>-0.2128461555332564</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>41501</v>
       </c>
       <c r="B36">
-        <v>0.1999914549530217</v>
+        <v>0.4532479246724535</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>41593</v>
       </c>
       <c r="B37">
-        <v>1.809651846369789</v>
+        <v>-0.3446087745608111</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>41685</v>
       </c>
       <c r="B38">
-        <v>-2.218509177329452</v>
+        <v>0.4255979180752121</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>41774</v>
       </c>
       <c r="B39">
-        <v>0.9580856546984649</v>
+        <v>0.4461687925667093</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>41866</v>
       </c>
       <c r="B40">
-        <v>0.06845131779844849</v>
+        <v>0.6373066379050414</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>41958</v>
       </c>
       <c r="B41">
-        <v>2.344079640195559</v>
+        <v>0.3261422475203943</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>42050</v>
       </c>
       <c r="B42">
-        <v>-5.587651344285405E-06</v>
+        <v>0.6788370390783598</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>42139</v>
       </c>
       <c r="B43">
-        <v>0.6233623182505568</v>
+        <v>0.6601374471387373</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>42231</v>
       </c>
       <c r="B44">
-        <v>-4.887355777631228</v>
+        <v>1.255382587579845</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>42323</v>
       </c>
       <c r="B45">
-        <v>0.07746478018819403</v>
+        <v>0.8728685839363095</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>42415</v>
       </c>
       <c r="B46">
-        <v>0.2231996868496964</v>
+        <v>0.4694885089849095</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>42505</v>
       </c>
       <c r="B47">
-        <v>0.3473129037311367</v>
+        <v>1.152137745180852</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>42597</v>
       </c>
       <c r="B48">
-        <v>-0.4268782796002455</v>
+        <v>0.9596379771730028</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>42689</v>
       </c>
       <c r="B49">
-        <v>1.034675296103259</v>
+        <v>0.2682953781150843</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>42781</v>
       </c>
       <c r="B50">
-        <v>0.434366938073353</v>
+        <v>0.4191917022489378</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>42870</v>
       </c>
       <c r="B51">
-        <v>0.41600913674678</v>
+        <v>0.1682050168937224</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>42962</v>
       </c>
       <c r="B52">
-        <v>-0.3423454266220887</v>
+        <v>-0.03534872415686152</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45891</v>
+        <v>43054</v>
       </c>
       <c r="B53">
-        <v>0.7919400257838731</v>
+        <v>0.5002605909365485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B54">
+        <v>-0.5240674734835977</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B55">
+        <v>0.5854015665873362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>43327</v>
+      </c>
+      <c r="B56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B57">
+        <v>1.628071843823122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B58">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B59">
+        <v>0.5022917647287812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>43692</v>
+      </c>
+      <c r="B60">
+        <v>0.754883892913071</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B61">
+        <v>0.3494637214130449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B63">
+        <v>1.450185044412038</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B64">
+        <v>0.3499999990000049</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B65">
+        <v>0.7000000000000171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B66">
+        <v>0.7000000000000171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B67">
+        <v>0.7999999999999972</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B68">
+        <v>-0.7999999999999972</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B69">
+        <v>0.4999999999999858</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B70">
+        <v>2.842170943040401E-14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B71">
+        <v>0.5000000000000142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B72">
+        <v>0.7000000000000171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B73">
+        <v>-0.9999999999999858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B74">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B75">
+        <v>2.799999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B77">
+        <v>0.2000000000000028</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B78">
+        <v>-0.09999999999999432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>45427</v>
+      </c>
+      <c r="B79">
+        <v>0.2000000000000028</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>45519</v>
+      </c>
+      <c r="B80">
+        <v>0.09999999999999432</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>45611</v>
+      </c>
+      <c r="B81">
+        <v>0.09999999999999432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>45703</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B83">
+        <v>0.4999999999999858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>0.4000000000000199</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +898,7 @@
         <v>44058</v>
       </c>
       <c r="B64">
-        <v>0.3499999990000049</v>
+        <v>0.760290197271857</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>44150</v>
       </c>
       <c r="B65">
-        <v>0.7000000000000171</v>
+        <v>-0.5062757877985717</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>44242</v>
       </c>
       <c r="B66">
-        <v>0.7000000000000171</v>
+        <v>0.1999914549530217</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>44331</v>
       </c>
       <c r="B67">
-        <v>0.7999999999999972</v>
+        <v>1.809651846369789</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>44423</v>
       </c>
       <c r="B68">
-        <v>-0.7999999999999972</v>
+        <v>-2.218509177329452</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>44515</v>
       </c>
       <c r="B69">
-        <v>0.4999999999999858</v>
+        <v>0.9580856546984649</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>44607</v>
       </c>
       <c r="B70">
-        <v>2.842170943040401E-14</v>
+        <v>0.06845131779844849</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>44696</v>
       </c>
       <c r="B71">
-        <v>0.5000000000000142</v>
+        <v>2.344079640195559</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>44788</v>
       </c>
       <c r="B72">
-        <v>0.7000000000000171</v>
+        <v>-5.587651344285405E-06</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>44880</v>
       </c>
       <c r="B73">
-        <v>-0.9999999999999858</v>
+        <v>0.6233623182505568</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>44972</v>
       </c>
       <c r="B74">
-        <v>-0.5</v>
+        <v>-4.887355777631228</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>45061</v>
       </c>
       <c r="B75">
-        <v>2.799999999999997</v>
+        <v>0.07746478018819403</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>45153</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.2231996868496964</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>45245</v>
       </c>
       <c r="B77">
-        <v>0.2000000000000028</v>
+        <v>0.3473129037311367</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>45337</v>
       </c>
       <c r="B78">
-        <v>-0.09999999999999432</v>
+        <v>-0.4268782796002455</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>45427</v>
       </c>
       <c r="B79">
-        <v>0.2000000000000028</v>
+        <v>1.034675296103259</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>45519</v>
       </c>
       <c r="B80">
-        <v>0.09999999999999432</v>
+        <v>0.434366938073353</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>45611</v>
       </c>
       <c r="B81">
-        <v>0.09999999999999432</v>
+        <v>0.41600913674678</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>45703</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.3423454266220887</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,15 +1050,7 @@
         <v>45792</v>
       </c>
       <c r="B83">
-        <v>0.4999999999999858</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B84">
-        <v>0.4000000000000199</v>
+        <v>0.7919400257838731</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
+++ b/0_0_Data/2_Processed_Data/2_component_Evaluation_series/first_release_qoq_PUBCON.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,6 +1053,14 @@
         <v>0.7919400257838731</v>
       </c>
     </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B84">
+        <v>0.768168485846715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
